--- a/data/trans_camb/P36B08_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>10.99829469173552</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>40.62091856967122</v>
+        <v>40.6209185696712</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.679898527130692</v>
+        <v>-4.960424728177094</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.167121349495353</v>
+        <v>4.814878739315559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35.38518531318044</v>
+        <v>35.41232007025799</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.564427995013436</v>
+        <v>4.215897241653446</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.860489238046976</v>
+        <v>3.728956411745073</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>32.97438177903099</v>
+        <v>32.49104238026799</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.152930164597301</v>
+        <v>1.64390411964257</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.226532315918338</v>
+        <v>6.254538487552434</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>36.22053563170892</v>
+        <v>35.92668387767509</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.230417527586022</v>
+        <v>8.524733362037784</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.51140794742414</v>
+        <v>17.77615070313563</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47.7465936374932</v>
+        <v>48.2435730842106</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.98090830289994</v>
+        <v>17.04902195273974</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.73432535070064</v>
+        <v>16.89238158173769</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>44.90153601430406</v>
+        <v>45.01873309474359</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.69396663808277</v>
+        <v>10.43460910325295</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.70641538247305</v>
+        <v>15.51561619393715</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>44.78810867711713</v>
+        <v>44.69338714783311</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2142022858797301</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7911311576963143</v>
+        <v>0.7911311576963138</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1058551486413293</v>
+        <v>-0.09215283948864109</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.0994364904031626</v>
+        <v>0.09101168700937025</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6554663277880115</v>
+        <v>0.6676188968708211</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.08222822412364854</v>
+        <v>0.07523392795283518</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06770168789462364</v>
+        <v>0.06638884597895106</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5850321201060407</v>
+        <v>0.581467384910773</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02176032844180077</v>
+        <v>0.03058747616012156</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1118040066638592</v>
+        <v>0.1193011162020221</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6741961641515057</v>
+        <v>0.6728863899308405</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1497503323087767</v>
+        <v>0.1858497032099265</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3915952385591343</v>
+        <v>0.3813172657868079</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.026504593062857</v>
+        <v>1.040425178529775</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3481511048829723</v>
+        <v>0.3392868098552914</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3384307601281644</v>
+        <v>0.3374328910248547</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9159352400434051</v>
+        <v>0.9283483671030389</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2201340872813709</v>
+        <v>0.2106874275716454</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3117976520386798</v>
+        <v>0.3180216477427428</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9214295202548584</v>
+        <v>0.9283729798597126</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>6.471280412433034</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32.49773363031546</v>
+        <v>32.49773363031545</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.359645439094508</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2450833327850445</v>
+        <v>-0.1492164867667617</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.069904920895338</v>
+        <v>1.108771704020758</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28.12915245276196</v>
+        <v>27.5879884965493</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.132949211710743</v>
+        <v>1.379275181663869</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.007822225519844</v>
+        <v>-1.890968933887956</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>22.23091006944754</v>
+        <v>21.92654295487517</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.221993783968983</v>
+        <v>1.948164467668875</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.568915426887151</v>
+        <v>1.371232699646966</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>26.59651120118676</v>
+        <v>26.40063430794931</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.1337853796003</v>
+        <v>10.15765130741591</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.39982657741853</v>
+        <v>11.6986964786951</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36.86219760841731</v>
+        <v>37.15596893454197</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.38816025988569</v>
+        <v>12.6008960967736</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.866867832408902</v>
+        <v>9.05363651099387</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>30.87724936579216</v>
+        <v>30.68122733480585</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.38747148386749</v>
+        <v>9.182171733175771</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.211496249408007</v>
+        <v>8.961721649436708</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>32.74934263801693</v>
+        <v>32.92599767895321</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1044437129946776</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5244995963613366</v>
+        <v>0.5244995963613364</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.0920686442362193</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.006534727508350848</v>
+        <v>-0.002734577451679875</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01506936426906097</v>
+        <v>0.0171765633185514</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4310655229601741</v>
+        <v>0.4279120716222847</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01584335186255189</v>
+        <v>0.0193189518603382</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.0278281210573306</v>
+        <v>-0.02593208833488135</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3079550281192244</v>
+        <v>0.3042368793775251</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03477881672263652</v>
+        <v>0.02965505287421943</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02390048258894508</v>
+        <v>0.02081920681044671</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3971321966338026</v>
+        <v>0.3925574029485509</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1704743379224286</v>
+        <v>0.1710176029045671</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1908352021591229</v>
+        <v>0.198549393884076</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6312422372819849</v>
+        <v>0.6414399171487444</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1720724144595527</v>
+        <v>0.1944460133659978</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1348157119288748</v>
+        <v>0.1395649123449341</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4740965231609955</v>
+        <v>0.4716059458538018</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.151109442037879</v>
+        <v>0.1453392785268505</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1452440797907304</v>
+        <v>0.1426880655438693</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.522996165503349</v>
+        <v>0.523915591207899</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>9.676950717432021</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32.90492797691746</v>
+        <v>32.90492797691744</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>8.585804059129732</v>
@@ -1092,7 +1092,7 @@
         <v>7.466753245364099</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>28.21288530473283</v>
+        <v>28.2128853047328</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.173202858877584</v>
+        <v>6.909774832702229</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.363846666015669</v>
+        <v>4.417515226992814</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28.6650185563983</v>
+        <v>28.34867307386152</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.024807276576596</v>
+        <v>3.94674136415966</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.361144547223152</v>
+        <v>1.015469492316691</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>20.36239361797248</v>
+        <v>20.51011338366775</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.592196033210056</v>
+        <v>6.965842521425936</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.944453403128863</v>
+        <v>3.753448673533868</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>25.42764550673043</v>
+        <v>25.18798243250119</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.91342720925212</v>
+        <v>17.41121056792718</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.56553078916755</v>
+        <v>14.96448026953724</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37.18465763426327</v>
+        <v>37.23498007164443</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.06710511804724</v>
+        <v>12.95148505748115</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.53746464900047</v>
+        <v>10.25276781439016</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>27.66025002767327</v>
+        <v>27.65878637053927</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.02716917217374</v>
+        <v>13.58860074241272</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.87888732688961</v>
+        <v>10.76346858478041</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>31.21294532846547</v>
+        <v>30.81571590743542</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1576675579372372</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5361233915220359</v>
+        <v>0.5361233915220356</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1188106110680567</v>
@@ -1197,7 +1197,7 @@
         <v>0.1113950648840227</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4209026448058221</v>
+        <v>0.4209026448058217</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1100695089692517</v>
+        <v>0.1078431273323402</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.07148528987179487</v>
+        <v>0.0683487912893833</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4439692496474379</v>
+        <v>0.4384963298845952</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.05373480699052126</v>
+        <v>0.05199522127991578</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01955249318018135</v>
+        <v>0.01292833702943518</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2719616232616259</v>
+        <v>0.2724603458353223</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0943146411452342</v>
+        <v>0.1010929761599502</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.05687069398748883</v>
+        <v>0.0549094095220691</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3657053983948077</v>
+        <v>0.3641584462629464</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2901653943960663</v>
+        <v>0.3005712587212725</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2538111406262564</v>
+        <v>0.2555925022432811</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.64752716296363</v>
+        <v>0.6445241392068082</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1876381785754872</v>
+        <v>0.1850013640238577</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1522302606271197</v>
+        <v>0.1440343896987621</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4038413750297337</v>
+        <v>0.402429482534457</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2151790855385697</v>
+        <v>0.2094289956480393</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1669067733767569</v>
+        <v>0.1660186022662554</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4838538084757393</v>
+        <v>0.4772083991634593</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>6.697505409538762</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30.5110422303802</v>
+        <v>30.51104223038019</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.923667928083265</v>
@@ -1297,7 +1297,7 @@
         <v>3.216479628089164</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.05472038721977</v>
+        <v>19.05472038721979</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>7.058726791887193</v>
@@ -1306,7 +1306,7 @@
         <v>5.006934765454252</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>24.82033373260755</v>
+        <v>24.82033373260757</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.370357182178018</v>
+        <v>2.362810899464958</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.040586043208075</v>
+        <v>1.406734666998916</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25.53472424701154</v>
+        <v>26.34632361080957</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.019695666762401</v>
+        <v>1.199446719895112</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.954525013331078</v>
+        <v>-1.432944783724022</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.25636068091271</v>
+        <v>15.72743379010897</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.200169585365701</v>
+        <v>3.232491305465914</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8506291141760908</v>
+        <v>1.400093285438973</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>21.69238527845562</v>
+        <v>21.94180850883</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.99697395417912</v>
+        <v>14.08215308580641</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.76378798800324</v>
+        <v>12.46315269474949</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>34.92522334854645</v>
+        <v>35.24090599941047</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.82985884126114</v>
+        <v>10.89879316212765</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.62822069657183</v>
+        <v>8.218150972790122</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.06660364781568</v>
+        <v>23.2141560836683</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.96434491535314</v>
+        <v>10.70321374287169</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.033117442080053</v>
+        <v>8.910635911843174</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>27.78695798857316</v>
+        <v>27.98658960470106</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1039875353060187</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4737238549499864</v>
+        <v>0.4737238549499862</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.07677130421206653</v>
@@ -1402,7 +1402,7 @@
         <v>0.04168588432333826</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2469510028723799</v>
+        <v>0.2469510028723802</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.09975339824176756</v>
@@ -1411,7 +1411,7 @@
         <v>0.07075762702743389</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3507590969759615</v>
+        <v>0.3507590969759618</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03447162897999288</v>
+        <v>0.03555953342520898</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.0136029542998101</v>
+        <v>0.02021479788195938</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3714090173960676</v>
+        <v>0.3865793730837772</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.01290564083564197</v>
+        <v>0.01522154366943313</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02429447471328707</v>
+        <v>-0.01793316020558676</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.189604986278034</v>
+        <v>0.194709186236784</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04425885726420214</v>
+        <v>0.04459698875842447</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01204888069324768</v>
+        <v>0.01835887369145587</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2971686317326281</v>
+        <v>0.2991086262170485</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2306293517000218</v>
+        <v>0.2326256862560662</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1889528973034846</v>
+        <v>0.2061120769842872</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.576594051207715</v>
+        <v>0.5876601106028221</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1469206792223135</v>
+        <v>0.1481663071945819</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1042569974890072</v>
+        <v>0.1106095465513049</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3126456768745686</v>
+        <v>0.313775240359207</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.161348062972184</v>
+        <v>0.1560304608373593</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1337590070884989</v>
+        <v>0.1286100137359266</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4106346836502798</v>
+        <v>0.4131859492632912</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>8.342573379554075</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>22.05421841845426</v>
+        <v>22.05421841845428</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>7.360583326412307</v>
@@ -1520,7 +1520,7 @@
         <v>7.940411630198218</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>22.62667107354788</v>
+        <v>22.6266710735478</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2914854406187757</v>
+        <v>0.9065687026824868</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2278065803675022</v>
+        <v>1.129944693332327</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18.71089391280213</v>
+        <v>18.33028263133135</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.266576517420541</v>
+        <v>2.000142690924137</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.984367619453192</v>
+        <v>2.679849994401637</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>17.57113574603251</v>
+        <v>17.71151737301448</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.042236642811975</v>
+        <v>2.923035890110407</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.172390264431233</v>
+        <v>3.81730029315091</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>19.13145607673937</v>
+        <v>19.33979665142728</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.01208211277208</v>
+        <v>12.83861552060745</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.06811541522035</v>
+        <v>13.63831268621061</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>28.26088231377683</v>
+        <v>28.60115760564814</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.80279651578314</v>
+        <v>13.35761305032598</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.09264641040772</v>
+        <v>14.03395881641965</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>26.71247438800878</v>
+        <v>26.75513294111954</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.73753129008999</v>
+        <v>11.33125121063308</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>12.69755453340892</v>
+        <v>12.08941253446226</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>25.72613979076582</v>
+        <v>25.77634212546188</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1120633094256424</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2962477631692161</v>
+        <v>0.2962477631692162</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1015548326662525</v>
@@ -1625,7 +1625,7 @@
         <v>0.1095547918753057</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3121828383387797</v>
+        <v>0.3121828383387787</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.004148032694578798</v>
+        <v>0.01212832224227313</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.003731198915700304</v>
+        <v>0.01506024306645872</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2534518949142044</v>
+        <v>0.2461292854732856</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.02953046553792042</v>
+        <v>0.02677100933221964</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03877497946947559</v>
+        <v>0.04004851341399415</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2233980102221653</v>
+        <v>0.2274463507169871</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04080704889283809</v>
+        <v>0.038329305145602</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05629256723378144</v>
+        <v>0.05124003648441333</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2552004061735092</v>
+        <v>0.2573856940734651</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1948143469575788</v>
+        <v>0.1925987305746548</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1949166865522643</v>
+        <v>0.2057005710673094</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.428112618247781</v>
+        <v>0.4334296570602235</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1791544403584163</v>
+        <v>0.1907475515111516</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1999167411040297</v>
+        <v>0.2003538878296837</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3816045413104311</v>
+        <v>0.3839057818760341</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.168524452855967</v>
+        <v>0.1605053226609107</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1844668886808052</v>
+        <v>0.173988216642821</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3706718513620574</v>
+        <v>0.3716542703506405</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>7.167969416927211</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>20.28775373247591</v>
+        <v>20.2877537324759</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.538890064398831</v>
+        <v>2.773102965018837</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.450168333674339</v>
+        <v>1.194607623058788</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17.4597325941427</v>
+        <v>17.42859522009952</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4.182673344952708</v>
+        <v>4.474701823522468</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.183829801337956</v>
+        <v>0.4976247451260298</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>14.03715777943158</v>
+        <v>14.34494536831746</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>5.420273922423484</v>
+        <v>4.895053509492898</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>2.692183275304233</v>
+        <v>3.234896163094135</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>16.97206333364786</v>
+        <v>16.82169067064747</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>16.65464839242271</v>
+        <v>16.3873718884946</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>15.19649836336018</v>
+        <v>14.16299668065519</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>27.46177724819873</v>
+        <v>27.9830210423136</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15.23817289694753</v>
+        <v>14.76391137898067</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>12.51757315211673</v>
+        <v>11.99245622885805</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>23.35953528546839</v>
+        <v>23.09674600509257</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>13.88176810853651</v>
+        <v>13.90027870209272</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>11.45925208026466</v>
+        <v>11.74689611697844</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>23.58791432040803</v>
+        <v>23.46379892972309</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.09482600976118781</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.2683893612778609</v>
+        <v>0.2683893612778607</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.03326246847598308</v>
+        <v>0.0367246381910844</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.01920305041699727</v>
+        <v>0.01574046431450288</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.225752403456169</v>
+        <v>0.2273176241591145</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.05208580109989944</v>
+        <v>0.0557015070482029</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01471118236969218</v>
+        <v>0.006307630190954052</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1701631545680126</v>
+        <v>0.1756235258784291</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.06939658281095337</v>
+        <v>0.06344274536201908</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.0354721320805303</v>
+        <v>0.04153227990807948</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2156387680035953</v>
+        <v>0.2140458063987499</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2405246331520475</v>
+        <v>0.2393828570496132</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2230602785938511</v>
+        <v>0.206651860229299</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.4013516079871331</v>
+        <v>0.4175453792516967</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2032891854427202</v>
+        <v>0.1989647695981541</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1673760487729103</v>
+        <v>0.1607625432441142</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3164113252299425</v>
+        <v>0.3142364232283102</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1897020803988028</v>
+        <v>0.1897617828420116</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1564154257223628</v>
+        <v>0.1635563295119027</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3245115508674583</v>
+        <v>0.3228779375749687</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>4.333517222539607</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>19.630930251923</v>
+        <v>19.63093025192302</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.691643987603353</v>
+        <v>1.649994631938931</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.17851085888797</v>
+        <v>0.1995910921706731</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>15.45589836654116</v>
+        <v>14.73446459407758</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.558355952230906</v>
+        <v>2.010107464914524</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.801969318581118</v>
+        <v>-4.666044729521665</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>13.73430969068399</v>
+        <v>13.72271508381743</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>3.441612932803329</v>
+        <v>2.959140294826669</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.106304806696606</v>
+        <v>-1.086168406417719</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>16.19651769021322</v>
+        <v>16.05648829594168</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>17.16994127437388</v>
+        <v>16.82185147767231</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>15.46783392447583</v>
+        <v>14.53549717363671</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>27.89544743066038</v>
+        <v>27.15729406396052</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>13.43458780642636</v>
+        <v>13.60535109531409</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.260118348145157</v>
+        <v>8.685740265271312</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>23.83009957830135</v>
+        <v>23.81316286492523</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>13.63445660842809</v>
+        <v>12.73536245579922</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.517085064423243</v>
+        <v>9.149303138838485</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>23.60797242669928</v>
+        <v>23.60371877779828</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.05661607314791284</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2564720816900571</v>
+        <v>0.2564720816900574</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.02039840276227652</v>
+        <v>0.02426757960257247</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.01493033877044324</v>
+        <v>0.0007725271675011725</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1939726011311906</v>
+        <v>0.1815897943344758</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.02017809158097207</v>
+        <v>0.02478109351479265</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.05856395797014092</v>
+        <v>-0.05838034958801087</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1679262438552976</v>
+        <v>0.1678261908751593</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04324438129537216</v>
+        <v>0.03714586737893866</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.001049178637326034</v>
+        <v>-0.0140502916615377</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2026843155253769</v>
+        <v>0.2003507053564977</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2462819356435033</v>
+        <v>0.2402202213277681</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2176158103033519</v>
+        <v>0.2012547447571807</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4076894818589605</v>
+        <v>0.3882816569261097</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1824816791291671</v>
+        <v>0.1840468804348881</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1264851654398598</v>
+        <v>0.1156860657089627</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3258194743019465</v>
+        <v>0.3263577430672117</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1850336516967107</v>
+        <v>0.1723290000507088</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1291052394562629</v>
+        <v>0.1247901660582632</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3238763512333222</v>
+        <v>0.3228096708295766</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2162,7 @@
         <v>7.688780891922898</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>27.85385814831266</v>
+        <v>27.85385814831265</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>5.549263078201689</v>
+        <v>5.593316888930522</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>6.629934178669193</v>
+        <v>6.683749497796175</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>28.9768033489585</v>
+        <v>29.12264202251188</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>6.389375441892446</v>
+        <v>6.33991308070102</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>4.320666625237375</v>
+        <v>4.212018463259777</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>22.87560057842378</v>
+        <v>22.92495437332479</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>6.686728305756086</v>
+        <v>6.646650005506779</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>6.164560718634742</v>
+        <v>5.946256935081785</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>26.5085358454203</v>
+        <v>26.60154625626385</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>10.03985466403931</v>
+        <v>10.40109315905696</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>11.23170162558554</v>
+        <v>11.41789941489176</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>32.99665193399547</v>
+        <v>33.1113595097211</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>10.42902128661142</v>
+        <v>10.43184800472105</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>8.339265388408917</v>
+        <v>8.564886815361666</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>26.21576066527667</v>
+        <v>26.24081652404662</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>9.821287897615228</v>
+        <v>9.813581076197316</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>9.231239412743626</v>
+        <v>9.310179864731136</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>29.11102892446233</v>
+        <v>29.0861141215178</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>0.1143827044684847</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.4143699332403202</v>
+        <v>0.41436993324032</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.08564107842931035</v>
+        <v>0.08626992316288988</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1017042540559373</v>
+        <v>0.1035780423489069</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.4443693149217257</v>
+        <v>0.4490764622879962</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.08857776983287523</v>
+        <v>0.08791375262556536</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.05987002107553761</v>
+        <v>0.05840500482156647</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3152972480206822</v>
+        <v>0.3178240026083108</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.09774844255374561</v>
+        <v>0.09715457423998493</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.09052463108764702</v>
+        <v>0.08716570214249299</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.3886588000787887</v>
+        <v>0.3892194760139989</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1618552082418903</v>
+        <v>0.1680873010696236</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1805854787293461</v>
+        <v>0.1852223771494638</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.5322751107559531</v>
+        <v>0.5383022713973976</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1491271172113586</v>
+        <v>0.1495111049216322</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1194617812670228</v>
+        <v>0.1218386999702377</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3762267186958769</v>
+        <v>0.379338049127621</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1477871858500066</v>
+        <v>0.1466477796052425</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1393415188282206</v>
+        <v>0.1404737293472619</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4417694453569284</v>
+        <v>0.4400212712080223</v>
       </c>
     </row>
     <row r="52">
